--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1445754.789055961</v>
+        <v>1443058.405276209</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12436699.94224556</v>
+        <v>12436666.27081003</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673452</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10610666.97280704</v>
+        <v>10611505.40608659</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>13.1134241603918</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>109.8280576942318</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>127.4695742187188</v>
       </c>
       <c r="V3" t="n">
-        <v>127.4885821313544</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>47.95785010538768</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,13 +832,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>107.8303947436227</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>101.4913240036809</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>383.0198440937164</v>
+        <v>383.477334478437</v>
       </c>
       <c r="G5" t="n">
-        <v>383.0198440937164</v>
+        <v>383.477334478437</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9490894518053</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520056</v>
+        <v>99.32832091644353</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4754363151146</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>293.2421070861262</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>54.26788906985474</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339767</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.3160423925933</v>
+        <v>36.28687735603346</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.43696300167737</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907028</v>
+        <v>143.0309654321256</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9471662361903</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399542011172</v>
+        <v>218.9825793284422</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>37.92273509466835</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422477876</v>
+        <v>1.928326488848271</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.491627498362</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4230353577824</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>26.46050408882905</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1148,10 +1148,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>235.5611640561851</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>42.25821665404656</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>145.9219060821655</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>65.58300470475461</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>332.127122576457</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>348.7111690744154</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238061</v>
+        <v>19.53007201344963</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114121</v>
+        <v>96.15636898111879</v>
       </c>
       <c r="T11" t="n">
-        <v>201.764089379378</v>
+        <v>201.4146274292354</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7362075312412</v>
+        <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458129</v>
+        <v>86.64179915749273</v>
       </c>
       <c r="I12" t="n">
-        <v>9.75316679403538</v>
+        <v>8.282546271489849</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>122.4601525254633</v>
       </c>
       <c r="T12" t="n">
-        <v>189.655441187015</v>
+        <v>189.4832755487706</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7698485525558</v>
+        <v>225.7670384496465</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>124.4770701917494</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703405</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>218.4529121465557</v>
       </c>
       <c r="U13" t="n">
-        <v>105.129045833441</v>
+        <v>286.1978462422561</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>200.6173698503545</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>319.4395745411795</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>142.8837914811962</v>
       </c>
       <c r="H16" t="n">
-        <v>64.44601915223832</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1819,7 +1819,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>148.9055307001821</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.78074638267672</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>105.3305177187426</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>200.6173698503542</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>64.08106505030584</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>75.21356227238208</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756246</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>25.73194049497318</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>161.0175085755506</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>201.6887504327737</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695611</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986245</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,13 +3007,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>131.7584887394984</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670957</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>41.74133133759109</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>174.9868265178718</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520909</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,10 +3430,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>121.8455631377219</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272845</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>114.9322208041657</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>111.3341376326238</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>3.814130455270528</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>20.72279572932614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712587</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428202</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>72.26558381699897</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574.0438072739746</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="C2" t="n">
-        <v>574.0438072739746</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="D2" t="n">
-        <v>307.6661507067967</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E2" t="n">
-        <v>307.6661507067967</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F2" t="n">
-        <v>300.7206499575932</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>34.34299339041524</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358416</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411526</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411526</v>
+        <v>690.2330699327782</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411526</v>
+        <v>423.8554133656002</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411526</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="Y2" t="n">
-        <v>574.0438072739746</v>
+        <v>157.4777567984221</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>691.074259448092</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>462.9384134849055</v>
+        <v>926.0983743305515</v>
       </c>
       <c r="V3" t="n">
-        <v>334.1620678976788</v>
+        <v>690.9462660988088</v>
       </c>
       <c r="W3" t="n">
-        <v>334.1620678976788</v>
+        <v>436.7089093706072</v>
       </c>
       <c r="X3" t="n">
-        <v>334.1620678976788</v>
+        <v>228.8574091650744</v>
       </c>
       <c r="Y3" t="n">
-        <v>334.1620678976788</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.9359293559006</v>
+        <v>670.8336844174944</v>
       </c>
       <c r="C4" t="n">
-        <v>776.9997464279937</v>
+        <v>501.8975014895875</v>
       </c>
       <c r="D4" t="n">
-        <v>776.9997464279937</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0866528456006</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1967053476902</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>945.9359293559006</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>945.9359293559006</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="T4" t="n">
-        <v>945.9359293559006</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="U4" t="n">
-        <v>945.9359293559006</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="V4" t="n">
-        <v>945.9359293559006</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="W4" t="n">
-        <v>945.9359293559006</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="X4" t="n">
-        <v>945.9359293559006</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="Y4" t="n">
-        <v>945.9359293559006</v>
+        <v>719.2759572512193</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>904.8123404594502</v>
+        <v>1321.3078870904</v>
       </c>
       <c r="C5" t="n">
-        <v>904.8123404594502</v>
+        <v>1218.791398197793</v>
       </c>
       <c r="D5" t="n">
-        <v>904.8123404594502</v>
+        <v>1218.791398197793</v>
       </c>
       <c r="E5" t="n">
-        <v>904.8123404594502</v>
+        <v>1218.791398197793</v>
       </c>
       <c r="F5" t="n">
-        <v>517.9236090516558</v>
+        <v>831.4405552902808</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0348776438615</v>
+        <v>444.0897123827687</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0348776438615</v>
+        <v>131.0098240476119</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749731</v>
+        <v>30.67818675827496</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281441</v>
+        <v>93.68840227144165</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452985</v>
+        <v>238.8628998582988</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192557</v>
+        <v>455.8664631799363</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494236</v>
+        <v>728.9941769296667</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730203</v>
+        <v>1011.155191012934</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.82126014537</v>
+        <v>1264.256574219953</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.1110447396</v>
+        <v>1445.771748220734</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374865</v>
+        <v>1533.909337913748</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374865</v>
+        <v>1533.909337913748</v>
       </c>
       <c r="S5" t="n">
-        <v>1532.079376374865</v>
+        <v>1533.909337913748</v>
       </c>
       <c r="T5" t="n">
-        <v>1532.079376374865</v>
+        <v>1321.3078870904</v>
       </c>
       <c r="U5" t="n">
-        <v>1532.079376374865</v>
+        <v>1321.3078870904</v>
       </c>
       <c r="V5" t="n">
-        <v>1201.016489031295</v>
+        <v>1321.3078870904</v>
       </c>
       <c r="W5" t="n">
-        <v>1201.016489031295</v>
+        <v>1321.3078870904</v>
       </c>
       <c r="X5" t="n">
-        <v>904.8123404594502</v>
+        <v>1321.3078870904</v>
       </c>
       <c r="Y5" t="n">
-        <v>904.8123404594502</v>
+        <v>1321.3078870904</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>543.8570698394167</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="C6" t="n">
-        <v>369.4040405582897</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="D6" t="n">
-        <v>220.4696308970384</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="E6" t="n">
-        <v>220.4696308970384</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="F6" t="n">
-        <v>220.4696308970384</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6535813315286</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="H6" t="n">
-        <v>67.3244586311269</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749731</v>
+        <v>30.67818675827496</v>
       </c>
       <c r="J6" t="n">
-        <v>92.90538971379047</v>
+        <v>57.81740116028463</v>
       </c>
       <c r="K6" t="n">
-        <v>202.9042018085657</v>
+        <v>167.95163127538</v>
       </c>
       <c r="L6" t="n">
-        <v>582.0938474613449</v>
+        <v>362.3632362284483</v>
       </c>
       <c r="M6" t="n">
-        <v>828.107402757282</v>
+        <v>608.5892775779448</v>
       </c>
       <c r="N6" t="n">
-        <v>1095.040849741469</v>
+        <v>875.7408344892572</v>
       </c>
       <c r="O6" t="n">
-        <v>1317.01300885147</v>
+        <v>1097.912521571345</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.832169705197</v>
+        <v>1477.555082704997</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374865</v>
+        <v>1533.909337913748</v>
       </c>
       <c r="R6" t="n">
-        <v>1527.59759556509</v>
+        <v>1533.909337913748</v>
       </c>
       <c r="S6" t="n">
-        <v>1383.105979715896</v>
+        <v>1389.433615255035</v>
       </c>
       <c r="T6" t="n">
-        <v>1383.105979715896</v>
+        <v>1193.527386733631</v>
       </c>
       <c r="U6" t="n">
-        <v>1154.984813856181</v>
+        <v>972.3328621594469</v>
       </c>
       <c r="V6" t="n">
-        <v>919.8327056244386</v>
+        <v>737.1807539277042</v>
       </c>
       <c r="W6" t="n">
-        <v>919.8327056244386</v>
+        <v>482.9433971995026</v>
       </c>
       <c r="X6" t="n">
-        <v>919.8327056244386</v>
+        <v>275.0918969939697</v>
       </c>
       <c r="Y6" t="n">
-        <v>712.0724068594848</v>
+        <v>67.33159822901584</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.8655816738196</v>
+        <v>32.62599129246513</v>
       </c>
       <c r="C7" t="n">
-        <v>477.5597886489021</v>
+        <v>32.62599129246513</v>
       </c>
       <c r="D7" t="n">
-        <v>327.4431492365663</v>
+        <v>32.62599129246513</v>
       </c>
       <c r="E7" t="n">
-        <v>179.5300556541732</v>
+        <v>32.62599129246513</v>
       </c>
       <c r="F7" t="n">
-        <v>32.64010815626284</v>
+        <v>32.62599129246513</v>
       </c>
       <c r="G7" t="n">
-        <v>32.64010815626284</v>
+        <v>32.62599129246513</v>
       </c>
       <c r="H7" t="n">
-        <v>32.64010815626284</v>
+        <v>32.62599129246513</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626284</v>
+        <v>32.62599129246513</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749731</v>
+        <v>30.67818675827496</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961747007</v>
+        <v>157.3778790199914</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914628</v>
+        <v>375.0362985406462</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437701</v>
+        <v>614.9157070573549</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630884</v>
+        <v>854.5259358182302</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109135</v>
+        <v>1059.828468603748</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016232</v>
+        <v>1211.979570281384</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767126</v>
+        <v>1233.886026315008</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.202138767126</v>
+        <v>1233.886026315008</v>
       </c>
       <c r="S7" t="n">
-        <v>1029.675242304134</v>
+        <v>1233.886026315008</v>
       </c>
       <c r="T7" t="n">
-        <v>805.0055096195057</v>
+        <v>1233.886026315008</v>
       </c>
       <c r="U7" t="n">
-        <v>515.8655816738196</v>
+        <v>1207.1582444071</v>
       </c>
       <c r="V7" t="n">
-        <v>515.8655816738196</v>
+        <v>952.4737562012128</v>
       </c>
       <c r="W7" t="n">
-        <v>515.8655816738196</v>
+        <v>663.0565861642523</v>
       </c>
       <c r="X7" t="n">
-        <v>515.8655816738196</v>
+        <v>435.0670352662349</v>
       </c>
       <c r="Y7" t="n">
-        <v>515.8655816738196</v>
+        <v>214.2744561227048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2057.32755894284</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>1859.931962592039</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1501.666263985288</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1115.878011387044</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>704.8921065974366</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>289.1873563217255</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2519.654261072836</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2310.90861967866</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2057.32755894284</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.32755894284</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.32755894284</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X8" t="n">
-        <v>2057.32755894284</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y8" t="n">
-        <v>2057.32755894284</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="9">
@@ -4863,13 +4863,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4881,22 +4881,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.463386300792</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O9" t="n">
-        <v>1922.533821476953</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>939.770065904978</v>
+        <v>643.5623317901023</v>
       </c>
       <c r="C10" t="n">
-        <v>770.8338829770711</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7172435647353</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1570.200660776765</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1570.200660776765</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1570.200660776765</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1570.200660776765</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.200660776765</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>1342.211109878748</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>1121.418530735218</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2298.863922926232</v>
+        <v>2038.682393138729</v>
       </c>
       <c r="C11" t="n">
-        <v>1929.90140598582</v>
+        <v>1669.719876198317</v>
       </c>
       <c r="D11" t="n">
-        <v>1571.635707379069</v>
+        <v>1311.454177591567</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>925.6659249933225</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>514.680020203715</v>
       </c>
       <c r="G11" t="n">
-        <v>393.840852803538</v>
+        <v>100.1852123103651</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907326</v>
+        <v>100.1852123103651</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469162</v>
+        <v>80.45786684223414</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386823</v>
+        <v>317.3880320746712</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420299</v>
+        <v>723.2234501947041</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301222</v>
+        <v>1263.599934653016</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878104</v>
+        <v>1896.542330458668</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765418</v>
+        <v>2544.340204328191</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687093</v>
+        <v>3142.702105990714</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856273</v>
+        <v>3618.889144608864</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882231</v>
+        <v>3928.313032718606</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234581</v>
+        <v>4022.893342111707</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455651</v>
+        <v>3925.765696676233</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971431</v>
+        <v>3722.316578060844</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604038</v>
+        <v>3468.832312715613</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260468</v>
+        <v>3137.769425372042</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990354</v>
+        <v>3137.769425372042</v>
       </c>
       <c r="X11" t="n">
-        <v>2685.463762990354</v>
+        <v>2764.303667110962</v>
       </c>
       <c r="Y11" t="n">
-        <v>2685.463762990354</v>
+        <v>2374.16433513515</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5530399535777</v>
+        <v>941.5545302742961</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1000106724507</v>
+        <v>767.1015009931691</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1656010111994</v>
+        <v>618.1670913319178</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.9296363264624</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326288</v>
+        <v>312.3950783533473</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2964087081428</v>
+        <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503039</v>
+        <v>88.8240751972744</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469162</v>
+        <v>80.45786684223414</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792122</v>
+        <v>202.7540031635562</v>
       </c>
       <c r="K12" t="n">
-        <v>477.162132237649</v>
+        <v>489.9324039036201</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649576</v>
+        <v>922.4017448696459</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908846</v>
+        <v>957.9225392857898</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259912</v>
+        <v>1510.22884193657</v>
       </c>
       <c r="O12" t="n">
-        <v>2428.04357412566</v>
+        <v>1993.261411868772</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2361.604567899688</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.391145691522</v>
+        <v>2434.215892839358</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.819992977365</v>
+        <v>2242.818644810297</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.769640904077</v>
+        <v>2014.771131224795</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.617532672334</v>
+        <v>1779.619022993052</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.380175944132</v>
+        <v>1525.381666264851</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.5286757386</v>
+        <v>1317.530166059318</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.768376973646</v>
+        <v>1109.769867294364</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.5550239603831</v>
+        <v>377.4644537524802</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6188410324762</v>
+        <v>377.4644537524802</v>
       </c>
       <c r="D13" t="n">
-        <v>483.5022016201403</v>
+        <v>227.3478143401445</v>
       </c>
       <c r="E13" t="n">
-        <v>483.5022016201403</v>
+        <v>227.3478143401445</v>
       </c>
       <c r="F13" t="n">
-        <v>336.6122541222302</v>
+        <v>80.45786684223414</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1323565987729</v>
+        <v>80.45786684223414</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987729</v>
+        <v>80.45786684223414</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469162</v>
+        <v>80.45786684223414</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600394</v>
+        <v>143.5350566283903</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457693</v>
+        <v>377.0270927076824</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888901</v>
+        <v>731.3429449977133</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779219</v>
+        <v>1115.308455583785</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542991</v>
+        <v>1495.578740955086</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715846</v>
+        <v>1830.803602510218</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082518</v>
+        <v>2094.125701226119</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551101</v>
+        <v>2193.001193167699</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014269</v>
+        <v>2193.001193167699</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014269</v>
+        <v>2005.830897168755</v>
       </c>
       <c r="T13" t="n">
-        <v>1855.288681564315</v>
+        <v>1785.171389950012</v>
       </c>
       <c r="U13" t="n">
-        <v>1749.097726177</v>
+        <v>1496.082656371975</v>
       </c>
       <c r="V13" t="n">
-        <v>1494.413237971113</v>
+        <v>1241.398168166088</v>
       </c>
       <c r="W13" t="n">
-        <v>1204.996067934153</v>
+        <v>951.9809981291278</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.996067934153</v>
+        <v>723.9914472311104</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.2034887906228</v>
+        <v>503.1988680875803</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.224468905843</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.261951965431</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1589.996253358681</v>
       </c>
       <c r="E14" t="n">
         <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708295</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
@@ -5288,40 +5288,40 @@
         <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750196</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820541</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.19805447697</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206856</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3093.963640945776</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2703.824308969964</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072585</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220737</v>
+        <v>850.9945487488446</v>
       </c>
       <c r="C16" t="n">
-        <v>325.1228070941668</v>
+        <v>682.0583658209378</v>
       </c>
       <c r="D16" t="n">
-        <v>325.1228070941668</v>
+        <v>531.9417264086021</v>
       </c>
       <c r="E16" t="n">
-        <v>325.1228070941668</v>
+        <v>384.0286328262091</v>
       </c>
       <c r="F16" t="n">
-        <v>325.1228070941668</v>
+        <v>237.1386853282988</v>
       </c>
       <c r="G16" t="n">
-        <v>157.9086122687459</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156341</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693318</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821982</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930822</v>
+        <v>1770.842313657593</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.489584893861</v>
+        <v>1481.425143620632</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958435</v>
+        <v>1253.435592722615</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523134</v>
+        <v>1032.643013579084</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608037</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>372.3074987251933</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>964.2196729446338</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>964.2196729446338</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.6442739835331</v>
+        <v>570.8347179409777</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>401.8985350130708</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>401.8985350130708</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>401.8985350130708</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>401.8985350130708</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156341</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861978</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693319</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.121967026504</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2034.443184740886</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1745.366971055613</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1490.682482849726</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1201.265312812765</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>973.2757619147476</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630042</v>
+        <v>752.4831827712175</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.2220959708299</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251938</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.60923933393</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021278</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>240.4596049779264</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>783.4761600590336</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>614.5399771311268</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556307</v>
+        <v>549.8116285954643</v>
       </c>
       <c r="E22" t="n">
-        <v>483.8760050556307</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="F22" t="n">
-        <v>336.9860575577203</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="G22" t="n">
-        <v>169.7899582726002</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>1185.917204032804</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>965.1246248892734</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>228.9331431646413</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>562.8579153358619</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536376</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257307</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133949</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310019</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>2049.400878868272</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662385</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727407</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583877</v>
       </c>
     </row>
     <row r="26">
@@ -6218,37 +6218,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>870.3164745246297</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C28" t="n">
-        <v>701.3802915967228</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>551.2636521843871</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>403.350558601994</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>256.4606111040836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6394,7 +6394,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
         <v>2035.089393279803</v>
@@ -6421,13 +6421,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.7575184984</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.964939354869</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="29">
@@ -6464,7 +6464,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6488,22 +6488,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>702.4944101284061</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C31" t="n">
-        <v>533.5582272005026</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.342175037154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1332.925005000193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1104.935454102176</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y31" t="n">
-        <v>884.1428749586458</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="32">
@@ -6677,10 +6677,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6689,58 +6689,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876728</v>
+        <v>874.8686257536389</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876728</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>430.782665075337</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>282.8695714929439</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>135.9796239950336</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>135.9796239950336</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
         <v>2264.108249235165</v>
@@ -6889,19 +6889,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1867.752414038034</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1613.067925832147</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1323.650755795186</v>
       </c>
       <c r="X34" t="n">
-        <v>983.340348461439</v>
+        <v>1095.661204897169</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179125</v>
+        <v>874.8686257536389</v>
       </c>
     </row>
     <row r="35">
@@ -6932,28 +6932,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6962,22 +6962,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>991.7436897307858</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C37" t="n">
-        <v>822.8075068028792</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>672.6908673905434</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908938</v>
@@ -7099,13 +7099,13 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
         <v>2035.089393279803</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603205</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947403</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741516</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704556</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X37" t="n">
-        <v>1394.184733704556</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y37" t="n">
-        <v>1173.392154561026</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>866.4638174991045</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>697.5276345711973</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908938</v>
@@ -7324,28 +7324,28 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7360,22 +7360,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W40" t="n">
-        <v>1496.894412370892</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X40" t="n">
-        <v>1268.904861472874</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y40" t="n">
-        <v>1048.112282329344</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7421,40 +7421,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7500,16 +7500,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>870.3164745246296</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>701.3802915967227</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>551.263652184387</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>403.3505586019938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>256.4606111040835</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7594,25 +7594,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.747069396417</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.757518498399</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.964939354869</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7637,34 +7637,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270446</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,19 +7804,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
         <v>2035.089393279803</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783228</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752769</v>
+        <v>34.48513033188158</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>44.07315881356963</v>
+        <v>8.513746123788319</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>186.8284110501546</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>222.8921833248788</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="P9" t="n">
-        <v>280.1079373569283</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>50.60671908702358</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>33.21920099784637</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>288.7511433632822</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>55.35490999018792</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400679</v>
+        <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.63818461247364</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.39811087628537</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>181.0707536606734</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>50.2915261372918</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>50.29152613728951</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>22.6582613959707</v>
       </c>
       <c r="H16" t="n">
-        <v>76.0079706397155</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>50.29152613729209</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.05123379926057</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>76.00797063971638</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>50.29152613729206</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>84.53440796790652</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>65.08115057384181</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516637</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>226.4057028288548</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.506629716718275</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>16.89590291932109</v>
       </c>
     </row>
     <row r="29">
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>120.3791545843296</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>98.55338150863277</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>111.1976478713723</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.58839950884726</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>171.2522535850785</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>68.49784254931346</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856164</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>282.7088678813205</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>144.8013425629427</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>72.11969353038592</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194184</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>145.1398665102893</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>938881.8850479998</v>
+        <v>938881.8850479999</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>940374.6476198983</v>
+        <v>940380.3717639385</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839557.128772376</v>
+        <v>849607.4918893217</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913383.7904979945</v>
+        <v>913383.7904979942</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918408.9720564666</v>
+        <v>913383.7904979943</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>918408.9720564665</v>
+        <v>913383.7904979943</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564666</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564666</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
   </sheetData>
@@ -26314,31 +26314,31 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
-        <v>460660.0452039813</v>
+        <v>466243.5802689511</v>
       </c>
       <c r="F2" t="n">
-        <v>501674.8572737693</v>
+        <v>501674.8572737692</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>501674.8572737692</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062537</v>
+        <v>501674.8572737692</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062538</v>
@@ -26347,13 +26347,13 @@
         <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103551</v>
+        <v>132571.3256199665</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196347</v>
+        <v>265633.5342698677</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357041</v>
+        <v>348407.0423979653</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051405</v>
+        <v>143852.0300046375</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>10818.91345744888</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911416</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648401</v>
+        <v>30823.28075181872</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950817</v>
+        <v>65071.59368054878</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456755</v>
+        <v>90993.97560824342</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848978</v>
+        <v>37822.10612282918</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>215693.7182853452</v>
+        <v>215557.461040262</v>
       </c>
       <c r="D4" t="n">
-        <v>140338.6838374607</v>
+        <v>140338.6838374606</v>
       </c>
       <c r="E4" t="n">
-        <v>11067.91129448747</v>
+        <v>11080.50649916846</v>
       </c>
       <c r="F4" t="n">
         <v>11160.49963056816</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11160.49963056816</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11160.49963056816</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26442,22 +26442,22 @@
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="N4" t="n">
         <v>11167.03225179353</v>
       </c>
-      <c r="M4" t="n">
-        <v>11167.03225179353</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11167.03225179348</v>
-      </c>
       <c r="O4" t="n">
+        <v>11167.03225179349</v>
+      </c>
+      <c r="P4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11167.03225179352</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589735</v>
+        <v>72576.91021638169</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214691</v>
+        <v>88006.19635167006</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-481212.043249302</v>
+        <v>-481212.0432493021</v>
       </c>
       <c r="C6" t="n">
-        <v>92851.96856357937</v>
+        <v>92445.40928856682</v>
       </c>
       <c r="D6" t="n">
-        <v>13761.73166823687</v>
+        <v>14241.11561800378</v>
       </c>
       <c r="E6" t="n">
-        <v>38311.29271164285</v>
+        <v>18562.20491656232</v>
       </c>
       <c r="F6" t="n">
-        <v>223850.8820242222</v>
+        <v>246474.2941291595</v>
       </c>
       <c r="G6" t="n">
-        <v>381009.8264949743</v>
+        <v>390326.3241337971</v>
       </c>
       <c r="H6" t="n">
-        <v>392177.062730553</v>
+        <v>390326.3241337969</v>
       </c>
       <c r="I6" t="n">
-        <v>392177.062730553</v>
+        <v>381323.4113476685</v>
       </c>
       <c r="J6" t="n">
-        <v>323177.9083114392</v>
+        <v>323143.1703860032</v>
       </c>
       <c r="K6" t="n">
-        <v>361471.5253640692</v>
+        <v>361319.0440532985</v>
       </c>
       <c r="L6" t="n">
-        <v>326989.682351045</v>
+        <v>327070.7311245686</v>
       </c>
       <c r="M6" t="n">
-        <v>307247.4683859855</v>
+        <v>301148.349196874</v>
       </c>
       <c r="N6" t="n">
-        <v>348394.6561720634</v>
+        <v>354320.2186822883</v>
       </c>
       <c r="O6" t="n">
-        <v>389153.7647533283</v>
+        <v>392142.3248051173</v>
       </c>
       <c r="P6" t="n">
-        <v>392177.0627305532</v>
+        <v>392142.3248051173</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605233</v>
+        <v>717.150838536363</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494554</v>
+        <v>1232.028328053767</v>
       </c>
       <c r="F3" t="n">
+        <v>1358.041048716385</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1358.041048716385</v>
+      </c>
+      <c r="H3" t="n">
         <v>1358.041048716386</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1367.975500341674</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937164</v>
+        <v>383.477334478437</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086453</v>
+        <v>1005.723335527927</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>102.702003891045</v>
+        <v>103.0958247668847</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570158</v>
+        <v>216.9140535811763</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770148</v>
+        <v>297.9634359362281</v>
       </c>
       <c r="F3" t="n">
-        <v>145.870781221832</v>
+        <v>126.012720662618</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,46 +27009,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922102</v>
+        <v>119.7634544769308</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063225</v>
+        <v>257.1074976216019</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086064</v>
+        <v>365.1385034278878</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173617</v>
+        <v>154.4219547980794</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015065</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922104</v>
+        <v>119.7634544769308</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063225</v>
+        <v>257.1074976216016</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086064</v>
+        <v>365.1385034278881</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173614</v>
+        <v>154.4219547980794</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922102</v>
+        <v>119.7634544769308</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063225</v>
+        <v>257.1074976216019</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086064</v>
+        <v>365.1385034278878</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173617</v>
+        <v>154.4219547980794</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0802084688762</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>217.9242007759031</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590676</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>98.3849132848358</v>
       </c>
       <c r="V3" t="n">
-        <v>105.3120050180708</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>131.8741300765496</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.67420814004123</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>263.7815677673267</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>23.85620164799508</v>
+        <v>23.39871126327444</v>
       </c>
       <c r="G5" t="n">
-        <v>29.4014581745422</v>
+        <v>28.94238459032071</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9653033936934</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980477</v>
+        <v>143.3232867394217</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1151380880864</v>
+        <v>251.1150114321263</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>76.48899359234281</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,10 +27707,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>81.53392431952005</v>
+        <v>135.8009663029626</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33765040199579</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.384369338296352</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.950580588878</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>6.857319143305801</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>129.3240860039595</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6984667036611</v>
+        <v>166.6977565348686</v>
       </c>
       <c r="H7" t="n">
-        <v>150.735559994784</v>
+        <v>150.7292459486107</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629794</v>
+        <v>116.559737650565</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.177322371449</v>
+        <v>119.1453906001064</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4792511931328</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4200010002144</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>259.7879858409206</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>65.45738850622024</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>81.19399874474783</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>21.32491501646237</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>129.0794556569829</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28068,10 +28068,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-3.658411852876323e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29670,7 +29670,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>3.395446886618932e-12</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29973,7 +29973,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.880510727564494e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30195,7 +30195,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>3.756355226869345e-12</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-4.816298607236514e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30399,7 +30399,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876473</v>
+        <v>2.883018446377337</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207369</v>
+        <v>29.52571266396191</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552053</v>
+        <v>111.1475686539624</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845823</v>
+        <v>244.6925868632187</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848635</v>
+        <v>366.7307576983714</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214594</v>
+        <v>454.961933476692</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930989</v>
+        <v>506.2328127724549</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882867</v>
+        <v>514.4241889332245</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521587</v>
+        <v>485.7561742570599</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948958</v>
+        <v>414.5816563621193</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.162590516132</v>
+        <v>311.3335582512308</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266044</v>
+        <v>181.1004074822505</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819769</v>
+        <v>65.69678284682362</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320177</v>
+        <v>12.6204132490168</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501178</v>
+        <v>0.2306414757101869</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835843</v>
+        <v>1.542550860248026</v>
       </c>
       <c r="H6" t="n">
-        <v>14.8896127630988</v>
+        <v>14.89779383450068</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882178</v>
+        <v>53.10975549538161</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342013</v>
+        <v>145.7372284236962</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812027</v>
+        <v>249.088136060314</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234359</v>
+        <v>334.9297383183269</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249851</v>
+        <v>390.8472070023178</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118054</v>
+        <v>401.1917695695075</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757586</v>
+        <v>367.0120899819065</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160742</v>
+        <v>294.5595585678885</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584139</v>
+        <v>196.9052641958709</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096576</v>
+        <v>95.77346481434678</v>
       </c>
       <c r="S6" t="n">
-        <v>28.63647141313504</v>
+        <v>28.65220567171222</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943591</v>
+        <v>6.217562458631297</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576213</v>
+        <v>0.1014836092268439</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797665</v>
+        <v>1.293222823590163</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265561</v>
+        <v>11.49792655882891</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427888</v>
+        <v>38.89073727669327</v>
       </c>
       <c r="J7" t="n">
-        <v>91.3806446941949</v>
+        <v>91.4308536278245</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574014</v>
+        <v>150.2489789589298</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232819</v>
+        <v>192.2669641544866</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970557</v>
+        <v>202.7185558833198</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291737</v>
+        <v>197.8983617226657</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981282</v>
+        <v>182.7911678289078</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402557</v>
+        <v>156.4094222276684</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.230309666739</v>
+        <v>108.2897766189908</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572044</v>
+        <v>58.14800077706312</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861021</v>
+        <v>22.53734684383947</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499112</v>
+        <v>5.525588428067057</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169088</v>
+        <v>0.07053942674128169</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148564</v>
+        <v>4.952877700718659</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508982</v>
+        <v>50.72365875248498</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380253</v>
+        <v>190.9458175569563</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307172</v>
+        <v>420.3693037513707</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726045</v>
+        <v>630.0246168227916</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216958</v>
+        <v>781.6012477561604</v>
       </c>
       <c r="M11" t="n">
-        <v>855.664291385741</v>
+        <v>869.6819865663159</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898372</v>
+        <v>883.7543503334829</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294392</v>
+        <v>834.5041726969616</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615124</v>
+        <v>712.2300044604697</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895577</v>
+        <v>534.8550718034825</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356976</v>
+        <v>311.1212038677688</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951041</v>
+        <v>112.8637006051266</v>
       </c>
       <c r="T11" t="n">
-        <v>21.3317601847534</v>
+        <v>21.68122213489594</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188511</v>
+        <v>0.3962302160574926</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969418</v>
+        <v>2.650023196191122</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191517</v>
+        <v>25.59364507900374</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596462</v>
+        <v>91.23983372851015</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783037</v>
+        <v>250.369077496285</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202547</v>
+        <v>427.9206316410902</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256405</v>
+        <v>575.3920979273751</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845317</v>
+        <v>178.0136242413556</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147128</v>
+        <v>689.2268662760411</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431798</v>
+        <v>630.5079312446483</v>
       </c>
       <c r="P12" t="n">
-        <v>266.1421801896241</v>
+        <v>506.0382013849522</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>338.2731364120457</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697578</v>
+        <v>49.22301857837454</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780655</v>
+        <v>10.68145314605106</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190407</v>
+        <v>0.1743436313283634</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.18588081023608</v>
+        <v>2.221690427637941</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737171</v>
+        <v>19.75284762027189</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691778</v>
+        <v>66.81229031478465</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836909</v>
+        <v>157.0735132340024</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619737</v>
+        <v>258.1200333201171</v>
       </c>
       <c r="L13" t="n">
-        <v>324.980861550917</v>
+        <v>330.3047750326445</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263703</v>
+        <v>348.2600731251001</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973088</v>
+        <v>339.9792269857226</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050054</v>
+        <v>314.0258433537701</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761891</v>
+        <v>268.703358629956</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916776</v>
+        <v>186.0362775361189</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570592</v>
+        <v>99.89528050088411</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929604</v>
+        <v>38.71800499801756</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826887</v>
+        <v>9.492677281725745</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765136</v>
+        <v>0.1211831142347969</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>535.7779407933576</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>391.605194951448</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>263.3189197138075</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>393.3904345522222</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043726</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>567.7870775946146</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,34 +34442,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789602</v>
+        <v>63.64668233653242</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398829</v>
+        <v>146.6409066533909</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514722</v>
+        <v>219.1955185067047</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658262</v>
+        <v>275.8865795451821</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916958</v>
+        <v>285.0111253366336</v>
       </c>
       <c r="O5" t="n">
-        <v>255.391211530472</v>
+        <v>255.6579628353731</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396262</v>
+        <v>183.3486606068498</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168247</v>
+        <v>89.02786837678136</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.8927294811042</v>
+        <v>27.41334788081785</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1099112068437</v>
+        <v>111.246697085955</v>
       </c>
       <c r="L6" t="n">
-        <v>383.0198440937164</v>
+        <v>196.3753585384528</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029668</v>
+        <v>248.7131730802995</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284721</v>
+        <v>269.8500574861741</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313141</v>
+        <v>224.415845537462</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017439</v>
+        <v>383.477334478437</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.81536027239238</v>
+        <v>56.92349010984935</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315185</v>
+        <v>127.9794871330469</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835981</v>
+        <v>219.8569894148027</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588963</v>
+        <v>242.3024328451604</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084023</v>
+        <v>242.0305341018943</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121679</v>
+        <v>207.3762957429475</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051492</v>
+        <v>153.6879814925618</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504463</v>
+        <v>22.12773336729643</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>522.0158803980274</v>
       </c>
       <c r="P9" t="n">
-        <v>529.7874664804606</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040309</v>
+        <v>239.3233992246844</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427624</v>
+        <v>409.934765777811</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517085</v>
+        <v>545.8348327861731</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584683</v>
+        <v>639.3357533390432</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932462</v>
+        <v>654.341286736892</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077525</v>
+        <v>604.4059612752749</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062428</v>
+        <v>480.9970087052001</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151082</v>
+        <v>312.549381929033</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156547</v>
+        <v>95.53566605363665</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.495955711637</v>
+        <v>123.5314508296183</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458957</v>
+        <v>290.0791926667312</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457664</v>
+        <v>436.8377181475009</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625134</v>
+        <v>35.87959031933725</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313795</v>
+        <v>557.8851541927078</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987354</v>
+        <v>487.9116868002038</v>
       </c>
       <c r="P12" t="n">
-        <v>132.1677727752939</v>
+        <v>372.0637939706219</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>198.2913623260242</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670181</v>
+        <v>63.71433311732963</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360908</v>
+        <v>235.8505414942342</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112331</v>
+        <v>357.8948002929607</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882109</v>
+        <v>387.8439500869407</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765374</v>
+        <v>384.1113993649512</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190451</v>
+        <v>338.6109712678098</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410826</v>
+        <v>265.9819178948495</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998324</v>
+        <v>99.87423428442447</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977574</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>397.2235610134835</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>253.0508151715738</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>136.4812930471408</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>254.8360547723481</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>425.1908331501702</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066246</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
